--- a/data/dia_3.xlsx
+++ b/data/dia_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{D9D0E7CA-0526-43A7-8293-E1AB94CD6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CED886B-3D8F-42C7-98E3-5D31156EDAA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98952830-AB5C-4A6B-975E-ECEF203586E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -1308,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,36 +1792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>255</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/dia_3.xlsx
+++ b/data/dia_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98952830-AB5C-4A6B-975E-ECEF203586E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840718A7-2E56-4487-A147-20D839FA6DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,114 @@
   </si>
   <si>
     <t>no_stops</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -160,10 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,18 +657,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -597,7 +708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -605,7 +716,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -613,7 +724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -621,7 +732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -629,7 +740,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -637,7 +748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -646,12 +757,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C15:C20)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C21:C34)</f>
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +797,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -684,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -695,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -706,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -717,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -728,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -739,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -750,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -761,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -772,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -783,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -794,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -805,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -816,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -827,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -838,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -849,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -860,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -871,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -882,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -893,7 +1022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -904,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -915,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -926,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -937,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -948,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -959,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -970,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -981,7 +1110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1091,7 +1220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1308,493 +1437,610 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="A1:D34"/>
+    <sheetView topLeftCell="A15" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
         <v>98</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
         <v>44</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
         <v>38</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
         <v>103</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
         <v>108</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
         <v>31</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
         <v>24</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>25</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
         <v>38</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
         <v>322</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
         <v>218</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
         <v>823</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
         <v>240</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
         <v>220</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3">
         <v>374</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3">
         <v>212</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
+      <c r="E30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
         <v>176</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33">
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
         <v>198</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3">
         <v>488</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
+      <c r="E34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/dia_3.xlsx
+++ b/data/dia_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840718A7-2E56-4487-A147-20D839FA6DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98952830-AB5C-4A6B-975E-ECEF203586E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -119,114 +119,6 @@
   </si>
   <si>
     <t>no_stops</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -268,13 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -684,7 +573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -692,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -708,7 +597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -716,7 +605,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -724,7 +613,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -732,7 +621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -740,7 +629,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -748,7 +637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -757,30 +646,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C15:C20)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C21:C34)</f>
-        <v>3300</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -797,12 +668,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -813,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -824,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -835,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -846,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -857,7 +728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -868,7 +739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -879,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -890,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -901,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -912,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -923,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -934,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -945,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -956,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -967,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -978,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -989,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1132,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1143,7 +1014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1374,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +1278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1437,610 +1308,493 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>44</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
         <v>38</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
-        <v>103</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>108</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
         <v>24</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>322</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>218</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>823</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>240</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3">
-        <v>322</v>
-      </c>
-      <c r="D22" s="3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>220</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>218</v>
-      </c>
-      <c r="D23" s="3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>374</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3">
-        <v>823</v>
-      </c>
-      <c r="D24" s="3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>212</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>176</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>198</v>
+      </c>
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3">
-        <v>220</v>
-      </c>
-      <c r="D28" s="3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>488</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3">
-        <v>374</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3">
-        <v>212</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3">
-        <v>176</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3">
-        <v>198</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="3">
-        <v>488</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/dia_3.xlsx
+++ b/data/dia_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98952830-AB5C-4A6B-975E-ECEF203586E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588E33B-0F83-498B-929E-FAA03C89EE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>no_stops</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -546,18 +552,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,7 +579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -597,7 +603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -605,7 +611,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -613,7 +619,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -621,7 +627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -629,7 +635,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -637,7 +643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -646,12 +652,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +690,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -684,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -695,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -706,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -717,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -728,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -739,7 +761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -750,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -761,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -772,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -783,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -794,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -805,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -816,7 +838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -827,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -838,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -849,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -860,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -871,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -882,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -893,7 +915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -904,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -915,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -926,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -937,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -948,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -959,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -970,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -981,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1091,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1310,13 +1332,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D34" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1596,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1708,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>18</v>
       </c>
